--- a/Check.xlsx
+++ b/Check.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="180">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -521,6 +521,36 @@
   </si>
   <si>
     <t>Тематические цитаты</t>
+  </si>
+  <si>
+    <t>Все поля пустые</t>
+  </si>
+  <si>
+    <t>Валидные логин и пароль</t>
+  </si>
+  <si>
+    <t>Ввод валидного логина и пароля с ошибкой</t>
+  </si>
+  <si>
+    <t>Ввод не валидного логина и валидного пароля</t>
+  </si>
+  <si>
+    <t>Ввод значения кириллицей в поле логин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввод взначения кириллицей в поле пароль </t>
+  </si>
+  <si>
+    <t>Ввод ссылки в поле логин</t>
+  </si>
+  <si>
+    <t>Ввод ссылки в поле пароль</t>
+  </si>
+  <si>
+    <t>Поле логин пустое, в поле пароль валидное значение</t>
+  </si>
+  <si>
+    <t>Поле пароль пустое, в поле логин валидное значение</t>
   </si>
 </sst>
 </file>
@@ -3278,64 +3308,166 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="27"/>
-      <c r="C154" s="28"/>
-      <c r="D154" s="28"/>
+      <c r="A154" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" s="27"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="28"/>
+      <c r="A155" s="10"/>
+      <c r="B155" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" s="27"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="28"/>
+      <c r="A156" s="10"/>
+      <c r="B156" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" s="27"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="28"/>
+      <c r="A157" s="10"/>
+      <c r="B157" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" s="27"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="28"/>
+      <c r="A158" s="10"/>
+      <c r="B158" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="159">
-      <c r="A159" s="27"/>
-      <c r="C159" s="28"/>
-      <c r="D159" s="28"/>
+      <c r="A159" s="10"/>
+      <c r="B159" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="160">
-      <c r="A160" s="27"/>
-      <c r="C160" s="28"/>
-      <c r="D160" s="28"/>
+      <c r="A160" s="10"/>
+      <c r="B160" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" s="27"/>
-      <c r="C161" s="28"/>
-      <c r="D161" s="28"/>
+      <c r="A161" s="10"/>
+      <c r="B161" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="162">
-      <c r="A162" s="27"/>
-      <c r="C162" s="28"/>
-      <c r="D162" s="28"/>
+      <c r="A162" s="10"/>
+      <c r="B162" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" s="16"/>
     </row>
     <row r="163">
-      <c r="A163" s="27"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="28"/>
+      <c r="A163" s="10"/>
+      <c r="B163" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" s="16"/>
     </row>
     <row r="164">
-      <c r="A164" s="27"/>
-      <c r="C164" s="28"/>
-      <c r="D164" s="28"/>
+      <c r="A164" s="10"/>
+      <c r="B164" s="14"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="16"/>
     </row>
     <row r="165">
-      <c r="A165" s="27"/>
-      <c r="C165" s="28"/>
-      <c r="D165" s="28"/>
+      <c r="A165" s="11"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="16"/>
     </row>
     <row r="166">
       <c r="A166" s="27"/>
@@ -7732,14 +7864,35 @@
       <c r="C1044" s="28"/>
       <c r="D1044" s="28"/>
     </row>
+    <row r="1045">
+      <c r="A1045" s="27"/>
+      <c r="C1045" s="28"/>
+      <c r="D1045" s="28"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="27"/>
+      <c r="C1046" s="28"/>
+      <c r="D1046" s="28"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="27"/>
+      <c r="C1047" s="28"/>
+      <c r="D1047" s="28"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="27"/>
+      <c r="C1048" s="28"/>
+      <c r="D1048" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A90:A103"/>
     <mergeCell ref="A104:A138"/>
     <mergeCell ref="A139:A142"/>
     <mergeCell ref="A143:A147"/>
     <mergeCell ref="A148:A149"/>
     <mergeCell ref="A150:A153"/>
+    <mergeCell ref="A154:A165"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A25"/>
@@ -7749,13 +7902,13 @@
     <mergeCell ref="A69:A89"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C153">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C165">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D153">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D165">
       <formula1>"Пройден,Не пройден"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E153">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E165">
       <formula1>"есть,есь"</formula1>
     </dataValidation>
   </dataValidations>
